--- a/Исходники/1.xlsx
+++ b/Исходники/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TsvetkovDS\Documents\Оперативная папка\CONCAT_YOUR_EXCELS\Исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6794842D-DDDA-4DCE-A57D-0118079B91FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183BCFD0-252E-4FEF-A21F-8D6B87AF4725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Исходники/1.xlsx
+++ b/Исходники/1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TsvetkovDS\Documents\Оперативная папка\CONCAT_YOUR_EXCELS\Исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183BCFD0-252E-4FEF-A21F-8D6B87AF4725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758A101-8662-442C-993F-285FFFD72654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,28 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,16 +63,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,12 +93,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDCDCDC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDCDCDC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDCDCDC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,120 +408,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C727AB-9099-4DF9-B60E-ED78ADD8D7EE}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45099</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>105000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45100</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
+      <c r="D5" s="2">
+        <v>110000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45862</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C727AB-9099-4DF9-B60E-ED78ADD8D7EE}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Исходники/1.xlsx
+++ b/Исходники/1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TsvetkovDS\Documents\Оперативная папка\CONCAT_YOUR_EXCELS\Исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758A101-8662-442C-993F-285FFFD72654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A853D834-47D0-4D3F-807B-4CB7A8116780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Невидимый" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>№</t>
   </si>
@@ -37,9 +38,6 @@
   </si>
   <si>
     <t>Дата</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>Петров</t>
@@ -409,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C727AB-9099-4DF9-B60E-ED78ADD8D7EE}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,18 +419,16 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -446,17 +442,14 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>100000</v>
@@ -464,17 +457,14 @@
       <c r="E3" s="4">
         <v>45099</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="18.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>105000</v>
@@ -482,17 +472,14 @@
       <c r="E4" s="4">
         <v>45100</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>110000</v>
@@ -500,10 +487,244 @@
       <c r="E5" s="4">
         <v>45862</v>
       </c>
-      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>110001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>110002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>110003</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>110004</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>110005</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>110006</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>110007</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>110008</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>110009</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>110010</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>110011</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>110012</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>110013</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FE10AF-F98D-4E57-8385-B5027CF0E45B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>